--- a/2018年04月第3周技术中心周简报-芶凌.xlsx
+++ b/2018年04月第3周技术中心周简报-芶凌.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t>本周重点工作完成情况</t>
   </si>
@@ -55,7 +55,13 @@
     <t>芶凌</t>
   </si>
   <si>
-    <t>债权匹配CC，CO代码整理</t>
+    <t>债权匹配CC，CO升级处理</t>
+  </si>
+  <si>
+    <t>债权匹配框架入口代码调整同时支持cli，fpm-fcgi</t>
+  </si>
+  <si>
+    <t>债权匹配数据保存日志调整</t>
   </si>
   <si>
     <t>系统优化</t>
@@ -76,9 +82,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="yyyy/m/d"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
@@ -138,6 +144,30 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -145,9 +175,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,19 +220,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -184,112 +255,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -308,13 +314,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,7 +338,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,157 +428,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -680,7 +686,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -689,7 +695,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -711,6 +717,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -734,30 +764,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -766,155 +772,155 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1475,7 +1481,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1562,7 +1568,9 @@
       <c r="A4" s="8"/>
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
-      <c r="E4" s="28"/>
+      <c r="E4" s="28" t="s">
+        <v>14</v>
+      </c>
       <c r="F4" s="29" t="s">
         <v>11</v>
       </c>
@@ -1575,7 +1583,9 @@
       <c r="A5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="10"/>
-      <c r="E5" s="28"/>
+      <c r="E5" s="28" t="s">
+        <v>15</v>
+      </c>
       <c r="F5" s="29" t="s">
         <v>11</v>
       </c>
@@ -1654,7 +1664,7 @@
       <c r="B11" s="13"/>
       <c r="C11" s="9"/>
       <c r="D11" s="14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E11" s="31"/>
       <c r="F11" s="32"/>
@@ -1679,7 +1689,7 @@
     </row>
     <row r="13" ht="42.75" customHeight="1" spans="1:11">
       <c r="A13" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>1</v>
@@ -1735,7 +1745,7 @@
     </row>
     <row r="17" ht="42.75" customHeight="1" spans="1:11">
       <c r="A17" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>1</v>
@@ -1792,7 +1802,7 @@
     </row>
     <row r="21" ht="42.75" customHeight="1" spans="1:11">
       <c r="A21" s="23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B21" s="24"/>
       <c r="C21" s="25"/>

--- a/2018年04月第3周技术中心周简报-芶凌.xlsx
+++ b/2018年04月第3周技术中心周简报-芶凌.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>本周重点工作完成情况</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>债权匹配数据保存日志调整</t>
+  </si>
+  <si>
+    <t>KAFKA项目框架整合</t>
   </si>
   <si>
     <t>系统优化</t>
@@ -82,10 +85,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="yyyy/m/d"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -168,6 +171,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -175,6 +186,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -185,31 +245,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -220,80 +273,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,49 +329,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,6 +485,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -387,114 +498,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,11 +694,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -715,41 +735,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -764,151 +749,169 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1481,7 +1484,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1543,7 +1546,9 @@
         <v>11</v>
       </c>
       <c r="H2" s="29"/>
-      <c r="I2" s="48"/>
+      <c r="I2" s="48">
+        <v>43210</v>
+      </c>
       <c r="J2" s="49" t="s">
         <v>12</v>
       </c>
@@ -1560,7 +1565,9 @@
         <v>11</v>
       </c>
       <c r="H3" s="29"/>
-      <c r="I3" s="48"/>
+      <c r="I3" s="48">
+        <v>43210</v>
+      </c>
       <c r="J3" s="49"/>
       <c r="K3" s="50"/>
     </row>
@@ -1575,7 +1582,9 @@
         <v>11</v>
       </c>
       <c r="H4" s="29"/>
-      <c r="I4" s="48"/>
+      <c r="I4" s="48">
+        <v>43210</v>
+      </c>
       <c r="J4" s="49"/>
       <c r="K4" s="50"/>
     </row>
@@ -1590,7 +1599,9 @@
         <v>11</v>
       </c>
       <c r="H5" s="29"/>
-      <c r="I5" s="48"/>
+      <c r="I5" s="48">
+        <v>43210</v>
+      </c>
       <c r="J5" s="49"/>
       <c r="K5" s="50"/>
     </row>
@@ -1598,12 +1609,16 @@
       <c r="A6" s="8"/>
       <c r="C6" s="9"/>
       <c r="D6" s="10"/>
-      <c r="E6" s="28"/>
+      <c r="E6" s="28" t="s">
+        <v>16</v>
+      </c>
       <c r="F6" s="29" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="29"/>
-      <c r="I6" s="48"/>
+      <c r="I6" s="48">
+        <v>43210</v>
+      </c>
       <c r="J6" s="49"/>
       <c r="K6" s="50"/>
     </row>
@@ -1612,9 +1627,7 @@
       <c r="C7" s="11"/>
       <c r="D7" s="12"/>
       <c r="E7" s="28"/>
-      <c r="F7" s="29" t="s">
-        <v>11</v>
-      </c>
+      <c r="F7" s="29"/>
       <c r="H7" s="29"/>
       <c r="I7" s="48"/>
       <c r="J7" s="49"/>
@@ -1625,9 +1638,7 @@
       <c r="C8" s="11"/>
       <c r="D8" s="12"/>
       <c r="E8" s="28"/>
-      <c r="F8" s="29" t="s">
-        <v>11</v>
-      </c>
+      <c r="F8" s="29"/>
       <c r="H8" s="29"/>
       <c r="I8" s="48"/>
       <c r="J8" s="49"/>
@@ -1638,9 +1649,7 @@
       <c r="C9" s="11"/>
       <c r="D9" s="12"/>
       <c r="E9" s="28"/>
-      <c r="F9" s="29" t="s">
-        <v>11</v>
-      </c>
+      <c r="F9" s="29"/>
       <c r="H9" s="29"/>
       <c r="I9" s="48"/>
       <c r="J9" s="49"/>
@@ -1651,9 +1660,7 @@
       <c r="C10" s="11"/>
       <c r="D10" s="12"/>
       <c r="E10" s="28"/>
-      <c r="F10" s="29" t="s">
-        <v>11</v>
-      </c>
+      <c r="F10" s="29"/>
       <c r="H10" s="30"/>
       <c r="I10" s="48"/>
       <c r="J10" s="49"/>
@@ -1664,7 +1671,7 @@
       <c r="B11" s="13"/>
       <c r="C11" s="9"/>
       <c r="D11" s="14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E11" s="31"/>
       <c r="F11" s="32"/>
@@ -1689,7 +1696,7 @@
     </row>
     <row r="13" ht="42.75" customHeight="1" spans="1:11">
       <c r="A13" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>1</v>
@@ -1745,7 +1752,7 @@
     </row>
     <row r="17" ht="42.75" customHeight="1" spans="1:11">
       <c r="A17" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>1</v>
@@ -1802,7 +1809,7 @@
     </row>
     <row r="21" ht="42.75" customHeight="1" spans="1:11">
       <c r="A21" s="23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="24"/>
       <c r="C21" s="25"/>
